--- a/data/trans_orig/P1801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE7C234-6444-46DA-85CF-6603B13A5949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B0956B-54A5-40A1-9A13-B8418DC0D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E4C020A-8A4E-4F2A-95E4-4600736811EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39CC5C4E-1C39-4F35-A517-8DC2B34A890F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>57,42%</t>
   </si>
   <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>62,11%</t>
   </si>
   <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>42,58%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,91 @@
     <t>42,08%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>48,1%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>58,94%</t>
   </si>
   <si>
     <t>51,9%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>53,58%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,205 +291,217 @@
     <t>58,52%</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>46,08%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8958B-E4F9-47C9-B65D-837CC08F2882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E909B4B-4230-40FA-A698-BE05E0E8C60D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1511,10 +1505,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1872</v>
@@ -1523,13 +1517,13 @@
         <v>2018326</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>3381</v>
@@ -1538,13 +1532,13 @@
         <v>3586290</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1553,13 @@
         <v>1809654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>1454</v>
@@ -1574,13 +1568,13 @@
         <v>1513774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>3160</v>
@@ -1589,13 +1583,13 @@
         <v>3323428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,7 +1645,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF108621-2985-4321-9ADB-F4A8AC0EACAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4616491D-2785-4903-A3DF-8EA296DB95A0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1687,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1794,13 +1788,13 @@
         <v>316364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>942</v>
@@ -1809,13 +1803,13 @@
         <v>537036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>1366</v>
@@ -1824,13 +1818,13 @@
         <v>853400</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1839,13 @@
         <v>224239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>483</v>
@@ -1860,13 +1854,13 @@
         <v>297723</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>749</v>
@@ -1875,13 +1869,13 @@
         <v>521962</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1943,13 @@
         <v>995267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>1625</v>
@@ -1964,13 +1958,13 @@
         <v>1186687</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>2646</v>
@@ -1979,13 +1973,13 @@
         <v>2181954</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +1994,13 @@
         <v>1164565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>1291</v>
@@ -2015,13 +2009,13 @@
         <v>1060117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>2260</v>
@@ -2030,13 +2024,13 @@
         <v>2224682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2098,13 @@
         <v>366892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>635</v>
@@ -2119,13 +2113,13 @@
         <v>422989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>1034</v>
@@ -2134,13 +2128,13 @@
         <v>789881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2149,13 @@
         <v>306147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>366</v>
@@ -2170,13 +2164,13 @@
         <v>288505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -2185,13 +2179,13 @@
         <v>594652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2253,13 @@
         <v>1678523</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>3202</v>
@@ -2274,13 +2268,13 @@
         <v>2146713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>5046</v>
@@ -2289,13 +2283,13 @@
         <v>3825236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2304,13 @@
         <v>1694952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>2140</v>
@@ -2325,13 +2319,13 @@
         <v>1646344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>3657</v>
@@ -2340,13 +2334,13 @@
         <v>3341296</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B0956B-54A5-40A1-9A13-B8418DC0D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E36963-3797-4F79-B62F-2C1D61AE69A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39CC5C4E-1C39-4F35-A517-8DC2B34A890F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCBC3A93-562F-4B87-86E1-AA9726A980FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>57,42%</t>
   </si>
   <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>62,11%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>42,58%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,91 +195,97 @@
     <t>42,08%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>49,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -913,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E909B4B-4230-40FA-A698-BE05E0E8C60D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E06F6E-1D09-4438-9AEE-4FED48FA9BF8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1502,10 +1508,10 @@
         <v>1567964</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>70</v>
@@ -1520,10 +1526,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>3381</v>
@@ -1532,13 +1538,13 @@
         <v>3586290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,13 +1559,13 @@
         <v>1809654</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>1454</v>
@@ -1568,13 +1574,13 @@
         <v>1513774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>3160</v>
@@ -1583,13 +1589,13 @@
         <v>3323428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,7 +1651,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4616491D-2785-4903-A3DF-8EA296DB95A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04792261-88B3-4EBD-99F2-83509C7E62F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1788,13 +1794,13 @@
         <v>316364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>942</v>
@@ -1803,13 +1809,13 @@
         <v>537036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>1366</v>
@@ -1818,13 +1824,13 @@
         <v>853400</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1845,13 @@
         <v>224239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>483</v>
@@ -1854,13 +1860,13 @@
         <v>297723</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>749</v>
@@ -1869,13 +1875,13 @@
         <v>521962</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1949,13 @@
         <v>995267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>1625</v>
@@ -1958,13 +1964,13 @@
         <v>1186687</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>2646</v>
@@ -1973,13 +1979,13 @@
         <v>2181954</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2000,13 @@
         <v>1164565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1291</v>
@@ -2009,13 +2015,13 @@
         <v>1060117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>2260</v>
@@ -2024,13 +2030,13 @@
         <v>2224682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2104,13 @@
         <v>366892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>635</v>
@@ -2113,13 +2119,13 @@
         <v>422989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>1034</v>
@@ -2128,13 +2134,13 @@
         <v>789881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2155,13 @@
         <v>306147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>366</v>
@@ -2164,13 +2170,13 @@
         <v>288505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -2179,13 +2185,13 @@
         <v>594652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2259,13 @@
         <v>1678523</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>3202</v>
@@ -2268,13 +2274,13 @@
         <v>2146713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>5046</v>
@@ -2283,13 +2289,13 @@
         <v>3825236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2310,13 @@
         <v>1694952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2140</v>
@@ -2319,13 +2325,13 @@
         <v>1646344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>3657</v>
@@ -2334,13 +2340,13 @@
         <v>3341296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E36963-3797-4F79-B62F-2C1D61AE69A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F64FEB-541F-461F-830C-A4AE3E2E25AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCBC3A93-562F-4B87-86E1-AA9726A980FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B3FCCA8-BF23-462D-9262-46E4DE4F339E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,477 +39,618 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="204">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>991.0</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>62,11%</t>
   </si>
   <si>
-    <t>59,69%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>0,02%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
 </sst>
 </file>
@@ -919,8 +1062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E06F6E-1D09-4438-9AEE-4FED48FA9BF8}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176ED674-430D-45E9-BC6A-41E9499ABAEB}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1037,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>446</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>433173</v>
+        <v>1031723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1052,550 +1195,548 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>583</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>653090</v>
+        <v>1315113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1029</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1086263</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>316</v>
-      </c>
-      <c r="D5" s="7">
-        <v>321174</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>309</v>
-      </c>
-      <c r="I5" s="7">
-        <v>341570</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>625</v>
-      </c>
-      <c r="N5" s="7">
-        <v>662744</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>762</v>
-      </c>
-      <c r="D6" s="7">
-        <v>754347</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>892</v>
-      </c>
-      <c r="I6" s="7">
-        <v>994660</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1654</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1749007</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>853</v>
-      </c>
-      <c r="D7" s="7">
-        <v>904671</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1010</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1069525</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1863</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1974195</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1099</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1171714</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>898</v>
+        <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>918775</v>
+        <v>1587673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1997</v>
+        <v>3203</v>
       </c>
       <c r="N8" s="7">
-        <v>2090490</v>
+        <v>3281086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>230120</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>295712</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>525831</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>291</v>
+        <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>316766</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>1554</v>
       </c>
       <c r="I11" s="7">
-        <v>253428</v>
+        <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>538</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="7">
-        <v>570195</v>
+        <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>1509</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1567964</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>1872</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2018326</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>3586290</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>1706</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1809654</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1513774</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>3160</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>3323428</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,74 +1745,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>452</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>979</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>83</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04792261-88B3-4EBD-99F2-83509C7E62F4}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08206EB-D92E-4961-BB64-D659E8BEA6E5}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1687,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1788,565 +2135,563 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>424</v>
+        <v>908</v>
       </c>
       <c r="D4" s="7">
-        <v>316364</v>
+        <v>974643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>942</v>
+        <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>537036</v>
+        <v>1337796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1366</v>
+        <v>2155</v>
       </c>
       <c r="N4" s="7">
-        <v>853400</v>
+        <v>2312440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>266</v>
-      </c>
-      <c r="D5" s="7">
-        <v>224239</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="7">
-        <v>483</v>
-      </c>
-      <c r="I5" s="7">
-        <v>297723</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="M5" s="7">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>521962</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>690</v>
-      </c>
-      <c r="D6" s="7">
-        <v>540603</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1425</v>
-      </c>
-      <c r="I6" s="7">
-        <v>834759</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2115</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1375362</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>908</v>
+      </c>
+      <c r="D7" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2155</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2312440</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>1021</v>
-      </c>
-      <c r="D7" s="7">
-        <v>995267</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1625</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1186687</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2646</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2181954</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>969</v>
+        <v>1856</v>
       </c>
       <c r="D8" s="7">
-        <v>1164565</v>
+        <v>1963957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1291</v>
+        <v>1635</v>
       </c>
       <c r="I8" s="7">
-        <v>1060117</v>
+        <v>1757803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>2260</v>
+        <v>3491</v>
       </c>
       <c r="N8" s="7">
-        <v>2224682</v>
+        <v>3721760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2159832</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>2916</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2246804</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>4906</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4406636</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>366892</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>422989</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>789881</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>282</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="7">
-        <v>306147</v>
+        <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>366</v>
+        <v>1635</v>
       </c>
       <c r="I11" s="7">
-        <v>288505</v>
+        <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>648</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="7">
-        <v>594652</v>
+        <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1001</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>711494</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1682</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1384533</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>1844</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1678523</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>3202</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2146713</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>5046</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>3825236</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>1517</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1694952</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>2140</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1646344</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>3657</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>3341296</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,66 +2700,2182 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3361</v>
+        <v>438</v>
       </c>
       <c r="D15" s="7">
-        <v>3373475</v>
+        <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>5342</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7">
-        <v>3793057</v>
+        <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8703</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>7166532</v>
+        <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>83</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6ED4DF-09B2-4E41-BC9D-53CC2D9B7ABC}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>446</v>
+      </c>
+      <c r="D5" s="7">
+        <v>433173</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7">
+        <v>583</v>
+      </c>
+      <c r="I5" s="7">
+        <v>653090</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1029</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1086263</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>316</v>
+      </c>
+      <c r="D6" s="7">
+        <v>321174</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7">
+        <v>309</v>
+      </c>
+      <c r="I6" s="7">
+        <v>341570</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="7">
+        <v>625</v>
+      </c>
+      <c r="N6" s="7">
+        <v>662744</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>762</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754347</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>892</v>
+      </c>
+      <c r="I7" s="7">
+        <v>994660</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1654</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1749007</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>853</v>
+      </c>
+      <c r="D9" s="7">
+        <v>904671</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1069525</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1863</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1974195</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1099</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1171714</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>898</v>
+      </c>
+      <c r="I10" s="7">
+        <v>918775</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1997</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2090490</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1988300</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3860</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4064685</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>210</v>
+      </c>
+      <c r="D13" s="7">
+        <v>230120</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="7">
+        <v>279</v>
+      </c>
+      <c r="I13" s="7">
+        <v>295712</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7">
+        <v>489</v>
+      </c>
+      <c r="N13" s="7">
+        <v>525831</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>291</v>
+      </c>
+      <c r="D14" s="7">
+        <v>316766</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
+        <v>247</v>
+      </c>
+      <c r="I14" s="7">
+        <v>253428</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7">
+        <v>538</v>
+      </c>
+      <c r="N14" s="7">
+        <v>570195</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1509</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1567964</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1872</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2018326</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3381</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3586290</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1706</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1809654</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1454</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1513774</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3160</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3323428</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3377618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3532100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6541</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6909718</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272A2ED-8611-4717-8158-57BB58D70260}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>424</v>
+      </c>
+      <c r="D5" s="7">
+        <v>316364</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
+        <v>942</v>
+      </c>
+      <c r="I5" s="7">
+        <v>537036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1366</v>
+      </c>
+      <c r="N5" s="7">
+        <v>853400</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>266</v>
+      </c>
+      <c r="D6" s="7">
+        <v>224239</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="7">
+        <v>483</v>
+      </c>
+      <c r="I6" s="7">
+        <v>297723</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="7">
+        <v>749</v>
+      </c>
+      <c r="N6" s="7">
+        <v>521962</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>690</v>
+      </c>
+      <c r="D7" s="7">
+        <v>540603</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1425</v>
+      </c>
+      <c r="I7" s="7">
+        <v>834759</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2115</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1375362</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1021</v>
+      </c>
+      <c r="D9" s="7">
+        <v>995267</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1625</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1186687</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2646</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2181954</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>969</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1164565</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1060117</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2260</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2224682</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1990</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2159832</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2916</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2246804</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4906</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4406636</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>399</v>
+      </c>
+      <c r="D13" s="7">
+        <v>366892</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="7">
+        <v>635</v>
+      </c>
+      <c r="I13" s="7">
+        <v>422989</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1034</v>
+      </c>
+      <c r="N13" s="7">
+        <v>789881</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>282</v>
+      </c>
+      <c r="D14" s="7">
+        <v>306147</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="7">
+        <v>366</v>
+      </c>
+      <c r="I14" s="7">
+        <v>288505</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="7">
+        <v>648</v>
+      </c>
+      <c r="N14" s="7">
+        <v>594652</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>681</v>
+      </c>
+      <c r="D15" s="7">
+        <v>673039</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1001</v>
+      </c>
+      <c r="I15" s="7">
+        <v>711494</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1384533</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1844</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1678523</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3202</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2146713</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>5046</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3825236</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1517</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1694952</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2140</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1646344</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3657</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3341296</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3361</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3373475</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5342</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3793057</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8703</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7166532</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F64FEB-541F-461F-830C-A4AE3E2E25AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6DFECC8-E8BB-478A-B80B-8C8A45AD5F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B3FCCA8-BF23-462D-9262-46E4DE4F339E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{466BD736-0361-4C9D-9E75-3F216D2F4D84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="208">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -437,58 +437,58 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -497,160 +497,172 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176ED674-430D-45E9-BC6A-41E9499ABAEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8958619-B917-44B5-8A79-7F4FECCA921E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1213,7 +1225,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1378,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1389,7 +1401,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1542,7 +1554,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1801,7 +1813,7 @@
         <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1816,7 +1828,7 @@
         <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1831,7 +1843,7 @@
         <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1954,7 +1966,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1969,7 +1981,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1984,7 +1996,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2017,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08206EB-D92E-4961-BB64-D659E8BEA6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BF78E3-6D45-4B48-9495-7D399FB7D46C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2153,7 +2165,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2306,7 +2318,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2580,7 +2592,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -2733,7 +2745,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2972,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6ED4DF-09B2-4E41-BC9D-53CC2D9B7ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EBF7E1-F014-449C-8BB0-35E00C8C7282}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3586,7 +3598,7 @@
         <v>489</v>
       </c>
       <c r="N13" s="7">
-        <v>525831</v>
+        <v>525832</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>99</v>
@@ -3688,7 +3700,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3927,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272A2ED-8611-4717-8158-57BB58D70260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF8AD23-BD18-4270-99BB-6FC205B0F84C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4099,7 +4111,7 @@
         <v>424</v>
       </c>
       <c r="D5" s="7">
-        <v>316364</v>
+        <v>303393</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>132</v>
@@ -4114,7 +4126,7 @@
         <v>942</v>
       </c>
       <c r="I5" s="7">
-        <v>537036</v>
+        <v>484577</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>135</v>
@@ -4129,7 +4141,7 @@
         <v>1366</v>
       </c>
       <c r="N5" s="7">
-        <v>853400</v>
+        <v>787970</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>138</v>
@@ -4150,7 +4162,7 @@
         <v>266</v>
       </c>
       <c r="D6" s="7">
-        <v>224239</v>
+        <v>210555</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>141</v>
@@ -4165,7 +4177,7 @@
         <v>483</v>
       </c>
       <c r="I6" s="7">
-        <v>297723</v>
+        <v>269849</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>144</v>
@@ -4180,7 +4192,7 @@
         <v>749</v>
       </c>
       <c r="N6" s="7">
-        <v>521962</v>
+        <v>480404</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>147</v>
@@ -4201,7 +4213,7 @@
         <v>690</v>
       </c>
       <c r="D7" s="7">
-        <v>540603</v>
+        <v>513948</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4216,7 +4228,7 @@
         <v>1425</v>
       </c>
       <c r="I7" s="7">
-        <v>834759</v>
+        <v>754426</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4231,7 +4243,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1375362</v>
+        <v>1268374</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4305,7 +4317,7 @@
         <v>1021</v>
       </c>
       <c r="D9" s="7">
-        <v>995267</v>
+        <v>1163660</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>152</v>
@@ -4320,7 +4332,7 @@
         <v>1625</v>
       </c>
       <c r="I9" s="7">
-        <v>1186687</v>
+        <v>1201306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>155</v>
@@ -4335,7 +4347,7 @@
         <v>2646</v>
       </c>
       <c r="N9" s="7">
-        <v>2181954</v>
+        <v>2364966</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>158</v>
@@ -4356,7 +4368,7 @@
         <v>969</v>
       </c>
       <c r="D10" s="7">
-        <v>1164565</v>
+        <v>1124342</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>161</v>
@@ -4371,7 +4383,7 @@
         <v>1291</v>
       </c>
       <c r="I10" s="7">
-        <v>1060117</v>
+        <v>1033970</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>164</v>
@@ -4386,7 +4398,7 @@
         <v>2260</v>
       </c>
       <c r="N10" s="7">
-        <v>2224682</v>
+        <v>2158312</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>167</v>
@@ -4407,7 +4419,7 @@
         <v>1990</v>
       </c>
       <c r="D11" s="7">
-        <v>2159832</v>
+        <v>2288002</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4422,7 +4434,7 @@
         <v>2916</v>
       </c>
       <c r="I11" s="7">
-        <v>2246804</v>
+        <v>2235276</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4437,7 +4449,7 @@
         <v>4906</v>
       </c>
       <c r="N11" s="7">
-        <v>4406636</v>
+        <v>4523278</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4511,7 +4523,7 @@
         <v>399</v>
       </c>
       <c r="D13" s="7">
-        <v>366892</v>
+        <v>357015</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>171</v>
@@ -4526,7 +4538,7 @@
         <v>635</v>
       </c>
       <c r="I13" s="7">
-        <v>422989</v>
+        <v>395007</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>174</v>
@@ -4535,22 +4547,22 @@
         <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>1034</v>
       </c>
       <c r="N13" s="7">
-        <v>789881</v>
+        <v>752022</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,46 +4574,46 @@
         <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>306147</v>
+        <v>289608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>288505</v>
+        <v>263234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>648</v>
       </c>
       <c r="N14" s="7">
-        <v>594652</v>
+        <v>552842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4625,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4628,7 +4640,7 @@
         <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>711494</v>
+        <v>658241</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4643,7 +4655,7 @@
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1384533</v>
+        <v>1304864</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4705,7 +4717,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,46 +4729,46 @@
         <v>1844</v>
       </c>
       <c r="D17" s="7">
-        <v>1678523</v>
+        <v>1824068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>3202</v>
       </c>
       <c r="I17" s="7">
-        <v>2146713</v>
+        <v>2080889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>5046</v>
       </c>
       <c r="N17" s="7">
-        <v>3825236</v>
+        <v>3904958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,46 +4780,46 @@
         <v>1517</v>
       </c>
       <c r="D18" s="7">
-        <v>1694952</v>
+        <v>1624505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H18" s="7">
         <v>2140</v>
       </c>
       <c r="I18" s="7">
-        <v>1646344</v>
+        <v>1567053</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>3657</v>
       </c>
       <c r="N18" s="7">
-        <v>3341296</v>
+        <v>3191558</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4831,7 @@
         <v>3361</v>
       </c>
       <c r="D19" s="7">
-        <v>3373475</v>
+        <v>3448573</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4834,7 +4846,7 @@
         <v>5342</v>
       </c>
       <c r="I19" s="7">
-        <v>3793057</v>
+        <v>3647942</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4849,7 +4861,7 @@
         <v>8703</v>
       </c>
       <c r="N19" s="7">
-        <v>7166532</v>
+        <v>7096516</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
